--- a/ResultadoEleicoesDistritos/VILA REAL_VALPAÇOS.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_VALPAÇOS.xlsx
@@ -597,64 +597,64 @@
         <v>5501</v>
       </c>
       <c r="H2" t="n">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="I2" t="n">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="J2" t="n">
-        <v>2198</v>
+        <v>2331</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="M2" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="n">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="S2" t="n">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="T2" t="n">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="U2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V2" t="n">
-        <v>3569</v>
+        <v>3476</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>3583</v>
+        <v>3548</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
